--- a/medicine/Mort/Cimetière_russe_de_Berlin-Tegel/Cimetière_russe_de_Berlin-Tegel.xlsx
+++ b/medicine/Mort/Cimetière_russe_de_Berlin-Tegel/Cimetière_russe_de_Berlin-Tegel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_russe_de_Berlin-Tegel</t>
+          <t>Cimetière_russe_de_Berlin-Tegel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière russe de Berlin-Tegel (Russischer Friedhof Berlin-Tegel) est un cimetière berlinois situé sur la Wittestraße 37, dans le quartier de Tegel, au nord-ouest de Berlin. Il fut fondé en 1893 pour la communauté russe-orthodoxe de la capitale de l'Empire allemand. De nombreux exilés de Russie en majorité issus de la noblesse, émigrés après la révolution d'Octobre y reposent, parmi lesquels le père de Vladimir Nabokov ou celui de Sergueï Eisenstein, Mikhaïl Eisenstein.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_russe_de_Berlin-Tegel</t>
+          <t>Cimetière_russe_de_Berlin-Tegel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La paroisse russe-orthodoxe de Berlin acheta en octobre 1892 pour 30 000 marks une parcelle de deux hectares à Tegel et fit venir de la terre de Russie. Albert Bohm construisit une église avec cinq coupoles bleues dédiée à saint Constantin et sainte Hélène quelques mois plus tard. Le cimetière fut officiellement ouvert, le 2 juin 1894.
 Après la chute de l'Empire russe, il devint la nécropole de milliers d'exilés, parmi eux nombre d'intellectuels, d'officiers, d'hommes d'État (Pavel Kourlov), de membres de la noblesse comme des Galitzine, des Dachkov ou des Kropotkine, mais aussi de simples soldats.
